--- a/excels/Motif-Filion.xlsx
+++ b/excels/Motif-Filion.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,71 +418,77 @@
       <c r="E1" t="str">
         <v>Mobile</v>
       </c>
+      <c r="F1" t="str">
+        <v>teamName</v>
+      </c>
+      <c r="G1" t="str">
+        <v>members</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>Shruti Roy</v>
-      </c>
-      <c r="B2" t="str">
-        <v>shruti.2018.r@gmail.com</v>
-      </c>
-      <c r="D2" t="str">
-        <v>BlitzShru10</v>
+      <c r="E2" t="str">
+        <v>9557639653</v>
+      </c>
+      <c r="F2" t="str">
+        <v>NONE</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>Namrata Dutta</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2021uar1265@mnit.ac.in</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Blitz-Nam-16</v>
+      <c r="E3" t="str">
+        <v>+919954553077</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Nammu</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>Rishabh chauhan</v>
-      </c>
-      <c r="B4" t="str">
-        <v>chauhanrishabh30@gmail.com</v>
-      </c>
-      <c r="D4" t="str">
-        <v>BlitzRish61</v>
+      <c r="E4" t="str">
+        <v>8619296051</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Settlers</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>Atharva tiwari</v>
-      </c>
-      <c r="B5" t="str">
-        <v>2021umt1658@mnit.ac.in</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Blitz-Ath-4</v>
+      <c r="E5" t="str">
+        <v>7355347714</v>
+      </c>
+      <c r="F5" t="str">
+        <v>none</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>Arshi</v>
-      </c>
-      <c r="B6" t="str">
-        <v>arshisiddiqui355@gmail.com</v>
-      </c>
-      <c r="D6" t="str">
-        <v>BlitzArsh73</v>
+      <c r="E6" t="str">
+        <v>9756466195</v>
+      </c>
+      <c r="F6" t="str">
+        <v>none</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>Rahul Rathva</v>
-      </c>
-      <c r="B7" t="str">
-        <v>2021kucp1062@iiitkota.ac.in</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Blitz-Rah-95</v>
+      <c r="E7" t="str">
+        <v>9265219230</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Akatsuki</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -501,6 +507,12 @@
       <c r="E8" t="str">
         <v>8306129281</v>
       </c>
+      <c r="F8" t="str">
+        <v>Vanshika</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -518,10 +530,62 @@
       <c r="E9" t="str">
         <v>8972919096</v>
       </c>
+      <c r="F9" t="str">
+        <v>SOURADEEP</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>SUHAIL ALI P</v>
+      </c>
+      <c r="B10" t="str">
+        <v>2020uar1103@mnit.ac.in</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2020UAR1103</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Blitz-SUH-306</v>
+      </c>
+      <c r="E10" t="str">
+        <v>8086873849</v>
+      </c>
+      <c r="F10" t="str">
+        <v>None</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>PARTH PATKAR</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2022umt1172@mnit.ac.in</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2022UMT1172</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Blitz-PAR-131</v>
+      </c>
+      <c r="E11" t="str">
+        <v>9834559434</v>
+      </c>
+      <c r="F11" t="str">
+        <v>None</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G11"/>
   </ignoredErrors>
 </worksheet>
 </file>